--- a/classfiers/mega/multinomialNB/nearmiss/mega-multinomialNB-nearmiss-results.xlsx
+++ b/classfiers/mega/multinomialNB/nearmiss/mega-multinomialNB-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.375</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4341966173361522</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4283096655978011</v>
+        <v>0.4053563955921328</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4583333333333334</v>
+        <v>0.4341966173361522</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9472517730496455</v>
+        <v>0.9423890063424947</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9473450836936038</v>
+        <v>0.9424983476536681</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9472517730496455</v>
+        <v>0.9423890063424947</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.746031746031746</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.8372093023255813</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8272727272727274</v>
+        <v>0.8341503267973855</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8372093023255813</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5576923076923077</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5574024822695035</v>
+        <v>0.5742600422832981</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5566666666666666</v>
+        <v>0.5738117304382364</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5574024822695035</v>
+        <v>0.5742600422832982</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7931034482758621</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6757535460992908</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6615331571083783</v>
+        <v>0.6732798649219078</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6757535460992908</v>
+        <v>0.686046511627907</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6952852328414547</v>
+        <v>0.693632406966963</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6944148936170214</v>
+        <v>0.6948202959830866</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6842254600678354</v>
+        <v>0.6858193330806661</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6944148936170214</v>
+        <v>0.6948202959830867</v>
       </c>
     </row>
   </sheetData>
